--- a/data/참조.xlsx
+++ b/data/참조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bd4f7f7812a88fc/MOS 2016 Excel/기본학습/Part03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mystat\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{12CF4571-F81E-4202-A908-C0C7A2C9A7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0213639-48F4-49E7-BE1D-11EEB49767B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC99B40-15FE-4117-A0EB-E65B754BA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="750" windowWidth="16410" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="510" windowWidth="19860" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="판매정보" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>일련번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -727,7 +723,7 @@
   <dimension ref="B2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K16" sqref="K16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2">
@@ -802,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2">
@@ -829,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2">
@@ -856,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2">
@@ -883,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
@@ -910,7 +906,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
@@ -937,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
@@ -964,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
@@ -991,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
@@ -1018,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2">
@@ -1071,16 +1067,16 @@
         <v>23</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L15" s="16"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="11">
         <v>269000</v>
@@ -1092,17 +1088,17 @@
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="11">
         <v>191200</v>
@@ -1116,10 +1112,10 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11">
         <v>83000</v>
@@ -1138,10 +1134,10 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="11">
         <v>34000</v>
@@ -1160,10 +1156,10 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="11">
         <v>220000</v>
@@ -1234,13 +1230,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>17</v>
